--- a/biology/Zoologie/Dendrobatinae/Dendrobatinae.xlsx
+++ b/biology/Zoologie/Dendrobatinae/Dendrobatinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dendrobatinae sont une sous-famille d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dendrobatinae sont une sous-famille d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des huit genres de cette sous-famille se rencontrent du Nicaragua au bassin amazonien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des huit genres de cette sous-famille se rencontrent du Nicaragua au bassin amazonien.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 juin 2017) :
 Adelphobates Grant, Frost, Caldwell, Gagliardo, Haddad, Kok, Means, Noonan, Schargel &amp; Wheeler, 2006
 Andinobates Twomey, Brown, Amézquita &amp; Mejía-Vargas, 2011
 Dendrobates Wagler, 1830
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1865 : Sketch of the Primary Groups of Batrachia Salientia. The Natural History Review, New Serie, vol. 5, p. 97–120 (texte intégral).</t>
         </is>
